--- a/Project/Phase 2/Sprint5/Burndown chart.xlsx
+++ b/Project/Phase 2/Sprint5/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui_j\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8953E88-B76D-4A08-96A2-93953F53E23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35EB13A-BFDA-45D8-946E-64BD16BF168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -318,19 +318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -366,7 +353,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -379,32 +366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -429,9 +390,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -439,26 +398,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -492,11 +431,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,9 +576,6 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,34 +603,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,47 +624,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,8 +648,87 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +755,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -708,7 +817,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RW"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1030,7 +1139,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RW"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1048433599"/>
@@ -1044,7 +1153,7 @@
         <c:axId val="1048433599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="31"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1114,7 +1223,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-RW"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1146,7 +1255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-RW"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1048432767"/>
@@ -1189,7 +1298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-RW"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1226,7 +1335,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-RW"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1835,7 +1944,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2134,429 +2243,431 @@
   <sheetPr codeName="Folha1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B2:I31"/>
+  <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="42">
         <v>44893</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>44894</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>44895</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44896</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="28">
         <v>44897</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="26"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="D7" s="46">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="D8" s="46">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="D9" s="46">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="D10" s="46">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="D11" s="46">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
         <v>7</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="D12" s="46">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
         <v>8</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="25">
-        <v>1</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="D13" s="46">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
         <v>9</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="D14" s="46">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="D15" s="46">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25">
-        <v>1</v>
-      </c>
-      <c r="I16" s="25"/>
+      <c r="D16" s="46">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="18">
         <v>12</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25"/>
+      <c r="D17" s="46">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
         <v>13</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="20">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25">
-        <v>1</v>
-      </c>
-      <c r="I18" s="25"/>
+      <c r="D18" s="46">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
         <v>14</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25">
+      <c r="D19" s="46">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
         <v>15</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25">
+      <c r="D20" s="46">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="21">
+      <c r="C21" s="49"/>
+      <c r="D21" s="29">
         <v>0</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="35">
         <f>SUM(E6:E20)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="16">
         <f>SUM(F6:F20)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="36">
         <f>SUM(G6:G20)</f>
         <v>5</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="37">
         <f>SUM(H6:H20)</f>
         <v>3</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="38">
         <f>SUM(I6:I20)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="15">
+      <c r="C22" s="50"/>
+      <c r="D22" s="43">
         <f>SUM(D6:D21)</f>
         <v>15</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <f>D22-SUM(E6:E20)</f>
         <v>12</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="40">
         <f>E22-SUM(F6:F20)</f>
         <v>10</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="39">
         <f>F22-SUM(G6:G20)</f>
         <v>5</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="14">
         <f>G22-SUM(H6:H20)</f>
         <v>2</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="30">
         <f>H22-SUM(I6:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31" t="s">
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="17">
+      <c r="C23" s="51"/>
+      <c r="D23" s="44">
         <f>D22</f>
         <v>15</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <f>$D$23-($D$23/(COLUMNS(E5:I5))*COLUMNS(E5))</f>
         <v>12</v>
       </c>
@@ -2577,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:I2"/>
